--- a/Data/ZoneData/2/920048328_VA.xlsx
+++ b/Data/ZoneData/2/920048328_VA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sccwrp.sharepoint.com/sites/MonitoringProgram/Shared Documents/General/Five Largest WQ by Analyte/By Zone/2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattmcgauley/Documents/Villanova/VUSP/SCCWRP/Automated_BMP_Analysis/Data/ZoneData/2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_7D08CBFBFE993FF0A3DC183FB1A6579375A5104E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98FD8BCC-865C-734F-A9A5-A36C4C69EEE7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F18541D-EFF7-6544-B1CA-1F4CE930C45B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6100" yWindow="720" windowWidth="23260" windowHeight="12580" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="key" sheetId="1" r:id="rId1"/>
@@ -638,7 +638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -27074,10 +27074,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AC181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
@@ -27827,7 +27826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>182770</v>
       </c>
@@ -28347,7 +28346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>187643</v>
       </c>
@@ -28932,7 +28931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>192086</v>
       </c>
@@ -29387,7 +29386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>198057</v>
       </c>
@@ -29582,7 +29581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>203442</v>
       </c>
@@ -29647,7 +29646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>203499</v>
       </c>
@@ -29712,7 +29711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>203700</v>
       </c>
@@ -29777,7 +29776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>206836</v>
       </c>
@@ -29972,7 +29971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>207833</v>
       </c>
@@ -30037,7 +30036,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>208252</v>
       </c>
@@ -30297,7 +30296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>209337</v>
       </c>
@@ -30492,7 +30491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>210825</v>
       </c>
@@ -30947,7 +30946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>213346</v>
       </c>
@@ -31207,7 +31206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>216225</v>
       </c>
@@ -31337,7 +31336,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>218164</v>
       </c>
@@ -31532,7 +31531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>221074</v>
       </c>
@@ -31987,7 +31986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>226322</v>
       </c>
@@ -32377,7 +32376,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>230716</v>
       </c>
@@ -33287,7 +33286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>262560</v>
       </c>
@@ -33352,7 +33351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>264078</v>
       </c>
@@ -33417,7 +33416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>263053</v>
       </c>
@@ -34392,7 +34391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>275051</v>
       </c>
@@ -34522,7 +34521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>276698</v>
       </c>
@@ -34782,7 +34781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>280863</v>
       </c>
@@ -35042,7 +35041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>284821</v>
       </c>
@@ -35432,7 +35431,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>291958</v>
       </c>
@@ -35887,7 +35886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>296256</v>
       </c>
@@ -36342,7 +36341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>300091</v>
       </c>
@@ -36537,7 +36536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>304584</v>
       </c>
@@ -36732,7 +36731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>305720</v>
       </c>
@@ -36992,7 +36991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>308871</v>
       </c>
@@ -37122,7 +37121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>310359</v>
       </c>
@@ -37902,7 +37901,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>317776</v>
       </c>
@@ -38552,7 +38551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>322085</v>
       </c>
@@ -38878,16 +38877,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AC181" xr:uid="{00000000-0001-0000-0400-000000000000}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="FCV Inflow"/>
-        <filter val="UM10 in Franklin Wetlan"/>
-        <filter val="UM20 in Franklin Wetlan"/>
-        <filter val="UM40 in Franklin Wetlan"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -84999,6 +84988,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A9BFA6F62F3F01449AA6E3EE576CB86F" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96662d92491edd344a6218d49921bb98">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c3cf68aa-1f02-44b8-b805-0daf3c8ec9c5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6b26d8a14c5b5b8f1db8f64a2f1f048c" ns2:_="">
     <xsd:import namespace="c3cf68aa-1f02-44b8-b805-0daf3c8ec9c5"/>
@@ -85130,22 +85134,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE944F4D-0E3C-4563-AA46-A9FF06510A08}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="c3cf68aa-1f02-44b8-b805-0daf3c8ec9c5"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41B7DF6C-BF55-405C-AD25-C09A48AB7614}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD883417-39B8-437D-8CE1-1EA51E3A9237}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -85161,28 +85174,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41B7DF6C-BF55-405C-AD25-C09A48AB7614}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE944F4D-0E3C-4563-AA46-A9FF06510A08}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="c3cf68aa-1f02-44b8-b805-0daf3c8ec9c5"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>